--- a/src/py/dataSheets/ReceitasSenado.xlsx
+++ b/src/py/dataSheets/ReceitasSenado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\User\Documentos\Projeto\src\py\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\User\Documentos\Analytics Dashboard\src\py\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A48416-0319-429F-A000-8746F8AAD46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483F730-7A6D-471F-B5A7-BF6465C4CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Receita prevista</t>
   </si>
   <si>
-    <t>Receita arrecadada líquida</t>
-  </si>
-  <si>
     <t>02000 - SENADO FEDERAL</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>ALIENAÇÃO DE BENS</t>
+  </si>
+  <si>
+    <t>Receita arrecadada</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1369,7 @@
     <col min="7" max="7" width="134" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="138.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52.28515625" bestFit="1" customWidth="1"/>
@@ -1406,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,28 +1415,28 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>44728</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>13110111</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1449,28 +1450,28 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>44728</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>13110201</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>2491650</v>
@@ -1484,28 +1485,28 @@
         <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>44728</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>13610111</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>11503528</v>
@@ -1519,28 +1520,28 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>44728</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>15110101</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>610965</v>
@@ -1554,28 +1555,28 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>44728</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>16110101</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>171547</v>
@@ -1589,28 +1590,28 @@
         <v>2022</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>44728</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>16320101</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>4154652</v>
@@ -1624,28 +1625,28 @@
         <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>44728</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>19110901</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>528827</v>
@@ -1659,28 +1660,28 @@
         <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>44728</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>19220631</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1694,28 +1695,28 @@
         <v>2022</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>44728</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>19229901</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10">
         <v>587481</v>
@@ -1729,28 +1730,28 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>44728</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>19239901</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1764,28 +1765,28 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>44728</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
       </c>
       <c r="H12">
         <v>22130101</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>160000</v>
@@ -1799,28 +1800,28 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>44728</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>73110201</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13">
         <v>141421</v>
@@ -1834,28 +1835,28 @@
         <v>2021</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>44603</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>13100111</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>8950</v>
@@ -1869,28 +1870,28 @@
         <v>2021</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>44603</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>13100211</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15">
         <v>2463632</v>
@@ -1904,28 +1905,28 @@
         <v>2021</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>44603</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>13100212</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>1325</v>
@@ -1939,28 +1940,28 @@
         <v>2021</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>44603</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>13600111</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1974,28 +1975,28 @@
         <v>2021</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
         <v>44603</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>15000011</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>694093</v>
@@ -2009,28 +2010,28 @@
         <v>2021</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>44603</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>16100111</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>202551</v>
@@ -2044,28 +2045,28 @@
         <v>2021</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
         <v>44603</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>16300211</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>3572972</v>
@@ -2079,28 +2080,28 @@
         <v>2021</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>44603</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>16300212</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2114,28 +2115,28 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>44603</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>19100911</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22">
         <v>444234</v>
@@ -2149,28 +2150,28 @@
         <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>44603</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>19220611</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2184,28 +2185,28 @@
         <v>2021</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>44603</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>19220631</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2219,28 +2220,28 @@
         <v>2021</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>44603</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25">
         <v>19229911</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25">
         <v>444471</v>
@@ -2254,28 +2255,28 @@
         <v>2021</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>44603</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <v>19239911</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2289,28 +2290,28 @@
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
         <v>44603</v>
       </c>
       <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
         <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
       </c>
       <c r="H27">
         <v>22130011</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <v>68000</v>
@@ -2324,28 +2325,28 @@
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>44603</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28">
         <v>73100211</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>375242</v>
@@ -2359,28 +2360,28 @@
         <v>2020</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
         <v>44279</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>13100111</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2394,28 +2395,28 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>44279</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>13100211</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <v>498522</v>
@@ -2429,28 +2430,28 @@
         <v>2020</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
         <v>44279</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>13100212</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2464,28 +2465,28 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>44279</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>15000011</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32">
         <v>998519</v>
@@ -2499,28 +2500,28 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
         <v>44279</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>16100111</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>240536</v>
@@ -2534,28 +2535,28 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>44279</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>16300211</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>3192955</v>
@@ -2569,28 +2570,28 @@
         <v>2020</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
         <v>44279</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <v>19100911</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35">
         <v>1079899</v>
@@ -2604,28 +2605,28 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>44279</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <v>19210111</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2639,28 +2640,28 @@
         <v>2020</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>44279</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37">
         <v>19220611</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2674,28 +2675,28 @@
         <v>2020</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
         <v>44279</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38">
         <v>19229911</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2709,28 +2710,28 @@
         <v>2020</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1">
         <v>44279</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39">
         <v>19239911</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2744,28 +2745,28 @@
         <v>2020</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1">
         <v>44279</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40">
         <v>19239912</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2779,28 +2780,28 @@
         <v>2020</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
         <v>44279</v>
       </c>
       <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" t="s">
         <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
       </c>
       <c r="H41">
         <v>22130011</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41">
         <v>164610</v>
@@ -2814,28 +2815,28 @@
         <v>2020</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>44279</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42">
         <v>73100211</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>1671913</v>
@@ -2849,28 +2850,28 @@
         <v>2020</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>44279</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <v>75000011</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2884,28 +2885,28 @@
         <v>2019</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1">
         <v>43889</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>13100111</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44">
         <v>16944</v>
@@ -2919,28 +2920,28 @@
         <v>2019</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1">
         <v>43889</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>13100112</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2954,28 +2955,28 @@
         <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1">
         <v>43889</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>13100211</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <v>1345725</v>
@@ -2989,28 +2990,28 @@
         <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1">
         <v>43889</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>13100212</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3024,28 +3025,28 @@
         <v>2019</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1">
         <v>43889</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>15000011</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>964225</v>
@@ -3059,28 +3060,28 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1">
         <v>43889</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>16100111</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>259603</v>
@@ -3094,28 +3095,28 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1">
         <v>43889</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>16300211</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>2248211</v>
@@ -3129,28 +3130,28 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1">
         <v>43889</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>16300212</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>2979</v>
@@ -3164,28 +3165,28 @@
         <v>2019</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
         <v>43889</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <v>19100911</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52">
         <v>579214</v>
@@ -3199,28 +3200,28 @@
         <v>2019</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1">
         <v>43889</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>19100912</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3234,28 +3235,28 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1">
         <v>43889</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <v>19210111</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3269,28 +3270,28 @@
         <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1">
         <v>43889</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55">
         <v>19220611</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2397719</v>
@@ -3304,28 +3305,28 @@
         <v>2019</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1">
         <v>43889</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56">
         <v>19229911</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56">
         <v>104218</v>
@@ -3339,28 +3340,28 @@
         <v>2019</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>43889</v>
       </c>
       <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" t="s">
         <v>31</v>
-      </c>
-      <c r="E57" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
       </c>
       <c r="H57">
         <v>22130011</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3374,28 +3375,28 @@
         <v>2019</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="1">
         <v>43889</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58">
         <v>73100211</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>1088234</v>
@@ -3409,28 +3410,28 @@
         <v>2019</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1">
         <v>43889</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H59">
         <v>75000011</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>99016</v>
@@ -3444,28 +3445,28 @@
         <v>2018</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1">
         <v>43465</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>13100111</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60">
         <v>62182</v>
@@ -3479,28 +3480,28 @@
         <v>2018</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
         <v>43465</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>13100211</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J61">
         <v>1955118</v>
@@ -3514,28 +3515,28 @@
         <v>2018</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1">
         <v>43465</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>13100212</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3549,28 +3550,28 @@
         <v>2018</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1">
         <v>43465</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>15000011</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <v>761907</v>
@@ -3584,28 +3585,28 @@
         <v>2018</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="1">
         <v>43465</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>16100111</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>258724</v>
@@ -3619,28 +3620,28 @@
         <v>2018</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1">
         <v>43465</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65">
         <v>16300211</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1567260</v>
@@ -3654,28 +3655,28 @@
         <v>2018</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1">
         <v>43465</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>16300212</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>15475</v>
@@ -3689,28 +3690,28 @@
         <v>2018</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1">
         <v>43465</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67">
         <v>19100911</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67">
         <v>2487692</v>
@@ -3724,28 +3725,28 @@
         <v>2018</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1">
         <v>43465</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H68">
         <v>19210111</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3759,28 +3760,28 @@
         <v>2018</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1">
         <v>43465</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69">
         <v>19220611</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3794,28 +3795,28 @@
         <v>2018</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1">
         <v>43465</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70">
         <v>19229911</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70">
         <v>46892</v>
@@ -3829,28 +3830,28 @@
         <v>2018</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1">
         <v>43465</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H71">
         <v>19229912</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3864,28 +3865,28 @@
         <v>2018</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1">
         <v>43465</v>
       </c>
       <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
-      </c>
-      <c r="E72" t="s">
-        <v>163</v>
-      </c>
-      <c r="F72" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
       </c>
       <c r="H72">
         <v>22130011</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J72">
         <v>180000</v>
@@ -3899,28 +3900,28 @@
         <v>2018</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="1">
         <v>43465</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H73">
         <v>73100211</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>145656</v>
@@ -3934,28 +3935,28 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1">
         <v>43465</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H74">
         <v>75000011</v>
       </c>
       <c r="I74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>230803</v>
@@ -3969,28 +3970,28 @@
         <v>2017</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1">
         <v>43100</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>13100111</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75">
         <v>7136</v>
@@ -4004,28 +4005,28 @@
         <v>2017</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1">
         <v>43100</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>13100211</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J76">
         <v>1404377</v>
@@ -4039,28 +4040,28 @@
         <v>2017</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>43100</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>15000011</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J77">
         <v>618425</v>
@@ -4074,28 +4075,28 @@
         <v>2017</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1">
         <v>43100</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>16100111</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>211959</v>
@@ -4109,28 +4110,28 @@
         <v>2017</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1">
         <v>43100</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H79">
         <v>16300111</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J79">
         <v>584418</v>
@@ -4144,28 +4145,28 @@
         <v>2017</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1">
         <v>43100</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80">
         <v>16300211</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>694515</v>
@@ -4179,28 +4180,28 @@
         <v>2017</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1">
         <v>43100</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81">
         <v>16300212</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4214,28 +4215,28 @@
         <v>2017</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1">
         <v>43100</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82">
         <v>19100911</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J82">
         <v>2413961</v>
@@ -4249,28 +4250,28 @@
         <v>2017</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1">
         <v>43100</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H83">
         <v>19210111</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4284,28 +4285,28 @@
         <v>2017</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1">
         <v>43100</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H84">
         <v>19219911</v>
       </c>
       <c r="I84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4319,28 +4320,28 @@
         <v>2017</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1">
         <v>43100</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85">
         <v>19220611</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4354,28 +4355,28 @@
         <v>2017</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1">
         <v>43100</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86">
         <v>19229911</v>
       </c>
       <c r="I86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J86">
         <v>183391</v>
@@ -4389,28 +4390,28 @@
         <v>2017</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1">
         <v>43100</v>
       </c>
       <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" t="s">
         <v>31</v>
-      </c>
-      <c r="E87" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>154</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
       </c>
       <c r="H87">
         <v>22130011</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J87">
         <v>164718</v>
@@ -4424,28 +4425,28 @@
         <v>2017</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1">
         <v>43100</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H88">
         <v>73100211</v>
       </c>
       <c r="I88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J88">
         <v>155383</v>
@@ -4459,28 +4460,28 @@
         <v>2017</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1">
         <v>43100</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H89">
         <v>75000011</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>434291</v>
@@ -4494,28 +4495,28 @@
         <v>2016</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1">
         <v>42735</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H90">
         <v>13100111</v>
       </c>
       <c r="I90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J90">
         <v>1475</v>
@@ -4529,28 +4530,28 @@
         <v>2016</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1">
         <v>42735</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H91">
         <v>13100211</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J91">
         <v>1599953</v>
@@ -4564,28 +4565,28 @@
         <v>2016</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1">
         <v>42735</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H92">
         <v>13100212</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4599,28 +4600,28 @@
         <v>2016</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1">
         <v>42735</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H93">
         <v>13600111</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>39538013</v>
@@ -4634,28 +4635,28 @@
         <v>2016</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1">
         <v>42735</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H94">
         <v>15000011</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94">
         <v>827542</v>
@@ -4669,28 +4670,28 @@
         <v>2016</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1">
         <v>42735</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H95">
         <v>16100111</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>200694</v>
@@ -4704,28 +4705,28 @@
         <v>2016</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1">
         <v>42735</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H96">
         <v>16300111</v>
       </c>
       <c r="I96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4739,28 +4740,28 @@
         <v>2016</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1">
         <v>42735</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H97">
         <v>16300112</v>
       </c>
       <c r="I97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4774,28 +4775,28 @@
         <v>2016</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1">
         <v>42735</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H98">
         <v>16300211</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1700000</v>
@@ -4809,28 +4810,28 @@
         <v>2016</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1">
         <v>42735</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H99">
         <v>16300212</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -4844,28 +4845,28 @@
         <v>2016</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1">
         <v>42735</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H100">
         <v>18000000</v>
       </c>
       <c r="I100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4879,28 +4880,28 @@
         <v>2016</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1">
         <v>42735</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H101">
         <v>19100911</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J101">
         <v>648443</v>
@@ -4914,28 +4915,28 @@
         <v>2016</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1">
         <v>42735</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H102">
         <v>19210111</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>3846</v>
@@ -4949,28 +4950,28 @@
         <v>2016</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1">
         <v>42735</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H103">
         <v>19220611</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4984,28 +4985,28 @@
         <v>2016</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="1">
         <v>42735</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H104">
         <v>19229911</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J104">
         <v>192138</v>
@@ -5019,28 +5020,28 @@
         <v>2016</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" s="1">
         <v>42735</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H105">
         <v>22130011</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J105">
         <v>120906</v>
@@ -5054,28 +5055,28 @@
         <v>2016</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1">
         <v>42735</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H106">
         <v>73100211</v>
       </c>
       <c r="I106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106">
         <v>153071</v>
@@ -5089,28 +5090,28 @@
         <v>2016</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="1">
         <v>42735</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H107">
         <v>75000011</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>600000</v>
@@ -5124,28 +5125,28 @@
         <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" s="1">
         <v>42369</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H108">
         <v>13110000</v>
       </c>
       <c r="I108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -5159,28 +5160,28 @@
         <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="1">
         <v>42369</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H109">
         <v>13330100</v>
       </c>
       <c r="I109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J109">
         <v>1480971</v>
@@ -5194,28 +5195,28 @@
         <v>2015</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1">
         <v>42369</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H110">
         <v>13610100</v>
       </c>
       <c r="I110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5229,28 +5230,28 @@
         <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1">
         <v>42369</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H111">
         <v>15202900</v>
       </c>
       <c r="I111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J111">
         <v>789322</v>
@@ -5264,28 +5265,28 @@
         <v>2015</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
         <v>42369</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H112">
         <v>16000599</v>
       </c>
       <c r="I112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5299,28 +5300,28 @@
         <v>2015</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1">
         <v>42369</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H113">
         <v>16001300</v>
       </c>
       <c r="I113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J113">
         <v>202690</v>
@@ -5334,28 +5335,28 @@
         <v>2015</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1">
         <v>42369</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H114">
         <v>19192700</v>
       </c>
       <c r="I114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J114">
         <v>1120987</v>
@@ -5369,28 +5370,28 @@
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1">
         <v>42369</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H115">
         <v>19199900</v>
       </c>
       <c r="I115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5404,28 +5405,28 @@
         <v>2015</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
         <v>42369</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H116">
         <v>19210600</v>
       </c>
       <c r="I116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J116">
         <v>10562</v>
@@ -5439,28 +5440,28 @@
         <v>2015</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" s="1">
         <v>42369</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H117">
         <v>19220700</v>
       </c>
       <c r="I117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J117">
         <v>1687775</v>
@@ -5474,28 +5475,28 @@
         <v>2015</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1">
         <v>42369</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H118">
         <v>19229900</v>
       </c>
       <c r="I118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J118">
         <v>187078</v>
@@ -5509,28 +5510,28 @@
         <v>2015</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1">
         <v>42369</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H119">
         <v>22160000</v>
       </c>
       <c r="I119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J119">
         <v>181970</v>
@@ -5544,28 +5545,28 @@
         <v>2015</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1">
         <v>42369</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H120">
         <v>22190000</v>
       </c>
       <c r="I120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5579,28 +5580,28 @@
         <v>2015</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1">
         <v>42369</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H121">
         <v>22150000</v>
       </c>
       <c r="I121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J121">
         <v>1070920</v>
@@ -5614,28 +5615,28 @@
         <v>2015</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" s="1">
         <v>42369</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H122">
         <v>73330100</v>
       </c>
       <c r="I122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J122">
         <v>167782</v>
@@ -5649,28 +5650,28 @@
         <v>2015</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1">
         <v>42369</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H123">
         <v>75202900</v>
       </c>
       <c r="I123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J123">
         <v>985678</v>
@@ -5684,28 +5685,28 @@
         <v>2015</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" s="1">
         <v>42369</v>
       </c>
       <c r="D124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H124">
         <v>76000102</v>
       </c>
       <c r="I124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5719,28 +5720,28 @@
         <v>2014</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1">
         <v>42021</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H125">
         <v>13110000</v>
       </c>
       <c r="I125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5754,28 +5755,28 @@
         <v>2014</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1">
         <v>42021</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H126">
         <v>13120000</v>
       </c>
       <c r="I126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -5789,28 +5790,28 @@
         <v>2014</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" s="1">
         <v>42021</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H127">
         <v>13330100</v>
       </c>
       <c r="I127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J127">
         <v>1093034</v>
@@ -5824,28 +5825,28 @@
         <v>2014</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1">
         <v>42021</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H128">
         <v>13610100</v>
       </c>
       <c r="I128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -5859,28 +5860,28 @@
         <v>2014</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C129" s="1">
         <v>42021</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H129">
         <v>15202900</v>
       </c>
       <c r="I129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J129">
         <v>659293</v>
@@ -5894,28 +5895,28 @@
         <v>2014</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" s="1">
         <v>42021</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H130">
         <v>16001300</v>
       </c>
       <c r="I130" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J130">
         <v>191899</v>
@@ -5929,28 +5930,28 @@
         <v>2014</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" s="1">
         <v>42021</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H131">
         <v>19192700</v>
       </c>
       <c r="I131" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J131">
         <v>951845</v>
@@ -5964,28 +5965,28 @@
         <v>2014</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1">
         <v>42021</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H132">
         <v>19210600</v>
       </c>
       <c r="I132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J132">
         <v>7538</v>
@@ -5999,28 +6000,28 @@
         <v>2014</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" s="1">
         <v>42021</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H133">
         <v>19219900</v>
       </c>
       <c r="I133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6034,28 +6035,28 @@
         <v>2014</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" s="1">
         <v>42021</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H134">
         <v>19220110</v>
       </c>
       <c r="I134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6069,28 +6070,28 @@
         <v>2014</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" s="1">
         <v>42021</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H135">
         <v>19220700</v>
       </c>
       <c r="I135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J135">
         <v>3439240</v>
@@ -6104,28 +6105,28 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" s="1">
         <v>42021</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H136">
         <v>19229900</v>
       </c>
       <c r="I136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J136">
         <v>1270580</v>
@@ -6139,28 +6140,28 @@
         <v>2014</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C137" s="1">
         <v>42021</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H137">
         <v>22150000</v>
       </c>
       <c r="I137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -6174,28 +6175,28 @@
         <v>2014</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C138" s="1">
         <v>42021</v>
       </c>
       <c r="D138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H138">
         <v>22160000</v>
       </c>
       <c r="I138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>246460</v>
@@ -6209,28 +6210,28 @@
         <v>2014</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" s="1">
         <v>42021</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H139">
         <v>22190000</v>
       </c>
       <c r="I139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J139">
         <v>134450</v>
@@ -6244,28 +6245,28 @@
         <v>2014</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="1">
         <v>42021</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H140">
         <v>73330100</v>
       </c>
       <c r="I140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J140">
         <v>189594</v>
@@ -6279,28 +6280,28 @@
         <v>2014</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" s="1">
         <v>42021</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H141">
         <v>75202900</v>
       </c>
       <c r="I141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6314,28 +6315,28 @@
         <v>2013</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" s="1">
         <v>41657</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H142">
         <v>13110000</v>
       </c>
       <c r="I142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -6349,28 +6350,28 @@
         <v>2013</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" s="1">
         <v>41657</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H143">
         <v>13330100</v>
       </c>
       <c r="I143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J143">
         <v>1001123</v>
@@ -6384,28 +6385,28 @@
         <v>2013</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" s="1">
         <v>41657</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H144">
         <v>15202900</v>
       </c>
       <c r="I144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J144">
         <v>873304</v>
@@ -6419,28 +6420,28 @@
         <v>2013</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145" s="1">
         <v>41657</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H145">
         <v>16001300</v>
       </c>
       <c r="I145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J145">
         <v>294079</v>
@@ -6454,28 +6455,28 @@
         <v>2013</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C146" s="1">
         <v>41657</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H146">
         <v>19192700</v>
       </c>
       <c r="I146" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J146">
         <v>959950</v>
@@ -6489,28 +6490,28 @@
         <v>2013</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" s="1">
         <v>41657</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H147">
         <v>19199900</v>
       </c>
       <c r="I147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6524,28 +6525,28 @@
         <v>2013</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C148" s="1">
         <v>41657</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H148">
         <v>19210600</v>
       </c>
       <c r="I148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J148">
         <v>1602</v>
@@ -6559,28 +6560,28 @@
         <v>2013</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C149" s="1">
         <v>41657</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H149">
         <v>19219900</v>
       </c>
       <c r="I149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6594,28 +6595,28 @@
         <v>2013</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" s="1">
         <v>41657</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H150">
         <v>19220100</v>
       </c>
       <c r="I150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J150">
         <v>95215</v>
@@ -6629,28 +6630,28 @@
         <v>2013</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C151" s="1">
         <v>41657</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H151">
         <v>19220700</v>
       </c>
       <c r="I151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6664,28 +6665,28 @@
         <v>2013</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C152" s="1">
         <v>41657</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H152">
         <v>19229900</v>
       </c>
       <c r="I152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J152">
         <v>1477585</v>
@@ -6699,28 +6700,28 @@
         <v>2013</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" s="1">
         <v>41657</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H153">
         <v>22150000</v>
       </c>
       <c r="I153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6734,28 +6735,28 @@
         <v>2013</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C154" s="1">
         <v>41657</v>
       </c>
       <c r="D154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H154">
         <v>22160000</v>
       </c>
       <c r="I154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6769,28 +6770,28 @@
         <v>2013</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" s="1">
         <v>41657</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G155" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H155">
         <v>22190000</v>
       </c>
       <c r="I155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -6804,28 +6805,28 @@
         <v>2013</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C156" s="1">
         <v>41657</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H156">
         <v>73330100</v>
       </c>
       <c r="I156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J156">
         <v>156695</v>
@@ -6839,28 +6840,28 @@
         <v>2013</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157" s="1">
         <v>41657</v>
       </c>
       <c r="D157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H157">
         <v>75202900</v>
       </c>
       <c r="I157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J157">
         <v>1100000</v>
@@ -6874,28 +6875,28 @@
         <v>2012</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C158" s="1">
         <v>41306</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H158">
         <v>13110000</v>
       </c>
       <c r="I158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6909,28 +6910,28 @@
         <v>2012</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159" s="1">
         <v>41306</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G159" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H159">
         <v>13120000</v>
       </c>
       <c r="I159" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J159">
         <v>2800</v>
@@ -6944,28 +6945,28 @@
         <v>2012</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C160" s="1">
         <v>41306</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H160">
         <v>13330100</v>
       </c>
       <c r="I160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J160">
         <v>1145165</v>
@@ -6979,28 +6980,28 @@
         <v>2012</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C161" s="1">
         <v>41306</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H161">
         <v>15202900</v>
       </c>
       <c r="I161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J161">
         <v>1129658</v>
@@ -7014,28 +7015,28 @@
         <v>2012</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C162" s="1">
         <v>41306</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H162">
         <v>16001300</v>
       </c>
       <c r="I162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J162">
         <v>308252</v>
@@ -7049,28 +7050,28 @@
         <v>2012</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C163" s="1">
         <v>41306</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H163">
         <v>19192700</v>
       </c>
       <c r="I163" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J163">
         <v>2492145</v>
@@ -7084,28 +7085,28 @@
         <v>2012</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C164" s="1">
         <v>41306</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H164">
         <v>19199900</v>
       </c>
       <c r="I164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -7119,28 +7120,28 @@
         <v>2012</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="1">
         <v>41306</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H165">
         <v>19210600</v>
       </c>
       <c r="I165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7154,28 +7155,28 @@
         <v>2012</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166" s="1">
         <v>41306</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H166">
         <v>19219900</v>
       </c>
       <c r="I166" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7189,28 +7190,28 @@
         <v>2012</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" s="1">
         <v>41306</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H167">
         <v>19220100</v>
       </c>
       <c r="I167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J167">
         <v>22710</v>
@@ -7224,28 +7225,28 @@
         <v>2012</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" s="1">
         <v>41306</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H168">
         <v>19229900</v>
       </c>
       <c r="I168" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J168">
         <v>613611</v>
@@ -7259,28 +7260,28 @@
         <v>2012</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169" s="1">
         <v>41306</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H169">
         <v>21230000</v>
       </c>
       <c r="I169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J169">
         <v>2691897</v>
@@ -7294,28 +7295,28 @@
         <v>2012</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" s="1">
         <v>41306</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H170">
         <v>22150000</v>
       </c>
       <c r="I170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7329,28 +7330,28 @@
         <v>2012</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="1">
         <v>41306</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G171" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H171">
         <v>22160000</v>
       </c>
       <c r="I171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7364,28 +7365,28 @@
         <v>2012</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" s="1">
         <v>41306</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H172">
         <v>22190000</v>
       </c>
       <c r="I172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7399,28 +7400,28 @@
         <v>2012</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" s="1">
         <v>41306</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H173">
         <v>73330100</v>
       </c>
       <c r="I173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J173">
         <v>126315</v>
@@ -7434,28 +7435,28 @@
         <v>2012</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" s="1">
         <v>41306</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H174">
         <v>75202900</v>
       </c>
       <c r="I174" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J174">
         <v>0</v>
